--- a/管理/JS调用Android接口.xlsx
+++ b/管理/JS调用Android接口.xlsx
@@ -468,12 +468,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -490,7 +502,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -505,9 +517,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -515,6 +524,29 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -787,7 +819,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -798,7 +830,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -809,11 +841,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="27.95" customHeight="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:3" ht="27.95" customHeight="1">
       <c r="A2" s="3" t="s">
@@ -827,20 +859,20 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.100000000000001" customHeight="1">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-    </row>
-    <row r="4" spans="1:3" ht="27.95" customHeight="1">
-      <c r="A4" s="4" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" spans="1:3" s="10" customFormat="1" ht="27.95" customHeight="1">
+      <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -866,14 +898,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="51.95" customHeight="1">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:3" s="10" customFormat="1" ht="51.95" customHeight="1">
+      <c r="A7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="12" t="s">
         <v>19</v>
       </c>
     </row>
@@ -884,29 +916,29 @@
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="27.95" customHeight="1">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:3" s="15" customFormat="1" ht="27.95" customHeight="1">
+      <c r="A9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="71.099999999999994" customHeight="1">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:3" s="15" customFormat="1" ht="71.099999999999994" customHeight="1">
+      <c r="A10" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="14" t="s">
         <v>23</v>
       </c>
     </row>
